--- a/CSOF5303 Proyecto 3/Proyecto 3 - Notas.xlsx
+++ b/CSOF5303 Proyecto 3/Proyecto 3 - Notas.xlsx
@@ -594,6 +594,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,9 +621,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -632,9 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,9 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
@@ -959,60 +957,60 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:15" ht="19.5" thickBot="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="44" t="s">
+      <c r="L3" s="48"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="46" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="42"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="33"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1023,7 @@
       <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="49"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1038,10 +1036,10 @@
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="7">
         <v>0.1</v>
       </c>
@@ -1095,7 +1093,9 @@
       <c r="H6" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="14">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14">
         <f>0.72/0.18</f>
@@ -1108,7 +1108,7 @@
       <c r="M6" s="15"/>
       <c r="N6" s="16">
         <f t="shared" ref="N6:N26" si="0">SUMPRODUCT(F6:M6,$F$5:$M$5)</f>
-        <v>1.9920731707317076</v>
+        <v>2.4650731707317073</v>
       </c>
       <c r="O6" s="31"/>
     </row>
@@ -1132,7 +1132,9 @@
       <c r="H7" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="14">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="J7" s="14"/>
       <c r="K7" s="14">
         <f t="shared" ref="K7:K10" si="3">0.72/0.18</f>
@@ -1145,7 +1147,7 @@
       <c r="M7" s="15"/>
       <c r="N7" s="16">
         <f t="shared" si="0"/>
-        <v>1.9920731707317076</v>
+        <v>2.4650731707317073</v>
       </c>
       <c r="O7" s="31"/>
     </row>
@@ -1169,7 +1171,9 @@
       <c r="H8" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="14">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="J8" s="14"/>
       <c r="K8" s="14">
         <f t="shared" si="3"/>
@@ -1182,7 +1186,7 @@
       <c r="M8" s="15"/>
       <c r="N8" s="16">
         <f t="shared" si="0"/>
-        <v>1.9920731707317076</v>
+        <v>2.4650731707317073</v>
       </c>
       <c r="O8" s="31"/>
     </row>
@@ -1206,7 +1210,9 @@
       <c r="H9" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="14">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="14">
         <f t="shared" si="3"/>
@@ -1219,7 +1225,7 @@
       <c r="M9" s="15"/>
       <c r="N9" s="16">
         <f t="shared" si="0"/>
-        <v>1.9920731707317076</v>
+        <v>2.4650731707317073</v>
       </c>
       <c r="O9" s="31"/>
     </row>
@@ -1243,7 +1249,9 @@
       <c r="H10" s="14">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="14">
         <f t="shared" si="3"/>
@@ -1256,7 +1264,7 @@
       <c r="M10" s="15"/>
       <c r="N10" s="16">
         <f t="shared" si="0"/>
-        <v>1.9920731707317076</v>
+        <v>2.4650731707317073</v>
       </c>
       <c r="O10" s="31"/>
     </row>
@@ -1284,7 +1292,9 @@
       <c r="H11" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="14">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14">
         <f>0.585/0.18</f>
@@ -1297,7 +1307,7 @@
       <c r="M11" s="15"/>
       <c r="N11" s="16">
         <f t="shared" si="0"/>
-        <v>1.9129634146341465</v>
+        <v>2.3779634146341464</v>
       </c>
       <c r="O11" s="31"/>
     </row>
@@ -1321,7 +1331,9 @@
       <c r="H12" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="14">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="14">
         <f t="shared" ref="K12:K15" si="7">0.585/0.18</f>
@@ -1334,7 +1346,7 @@
       <c r="M12" s="15"/>
       <c r="N12" s="16">
         <f t="shared" si="0"/>
-        <v>1.9129634146341465</v>
+        <v>2.3779634146341464</v>
       </c>
       <c r="O12" s="31"/>
     </row>
@@ -1358,7 +1370,9 @@
       <c r="H13" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="14">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14">
         <f t="shared" si="7"/>
@@ -1371,7 +1385,7 @@
       <c r="M13" s="15"/>
       <c r="N13" s="16">
         <f t="shared" si="0"/>
-        <v>1.9129634146341465</v>
+        <v>2.3779634146341464</v>
       </c>
       <c r="O13" s="31"/>
     </row>
@@ -1395,7 +1409,9 @@
       <c r="H14" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="14">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="14">
         <f t="shared" si="7"/>
@@ -1408,7 +1424,7 @@
       <c r="M14" s="15"/>
       <c r="N14" s="16">
         <f t="shared" si="0"/>
-        <v>1.9129634146341465</v>
+        <v>2.3779634146341464</v>
       </c>
       <c r="O14" s="31"/>
     </row>
@@ -1432,7 +1448,9 @@
       <c r="H15" s="14">
         <v>4.3899999999999997</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="14">
+        <v>4.6500000000000004</v>
+      </c>
       <c r="J15" s="14"/>
       <c r="K15" s="14">
         <f t="shared" si="7"/>
@@ -1445,7 +1463,7 @@
       <c r="M15" s="15"/>
       <c r="N15" s="16">
         <f t="shared" si="0"/>
-        <v>1.9129634146341465</v>
+        <v>2.3779634146341464</v>
       </c>
       <c r="O15" s="31"/>
     </row>
@@ -1473,7 +1491,9 @@
       <c r="H16" s="14">
         <v>4.57</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="14">
+        <v>4.84</v>
+      </c>
       <c r="J16" s="14"/>
       <c r="K16" s="14">
         <f>0.8775/0.18</f>
@@ -1486,7 +1506,7 @@
       <c r="M16" s="15"/>
       <c r="N16" s="16">
         <f t="shared" si="0"/>
-        <v>1.8362073170731708</v>
+        <v>2.3202073170731707</v>
       </c>
       <c r="O16" s="31"/>
     </row>
@@ -1510,7 +1530,9 @@
       <c r="H17" s="14">
         <v>4.57</v>
       </c>
-      <c r="I17" s="14"/>
+      <c r="I17" s="14">
+        <v>4.84</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="14">
         <f t="shared" ref="K17:K21" si="11">0.8775/0.18</f>
@@ -1523,7 +1545,7 @@
       <c r="M17" s="15"/>
       <c r="N17" s="16">
         <f t="shared" si="0"/>
-        <v>1.8362073170731708</v>
+        <v>2.3202073170731707</v>
       </c>
       <c r="O17" s="31"/>
     </row>
@@ -1547,7 +1569,9 @@
       <c r="H18" s="14">
         <v>4.57</v>
       </c>
-      <c r="I18" s="14"/>
+      <c r="I18" s="14">
+        <v>4.84</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14">
         <f t="shared" si="11"/>
@@ -1560,7 +1584,7 @@
       <c r="M18" s="15"/>
       <c r="N18" s="16">
         <f t="shared" si="0"/>
-        <v>1.8362073170731708</v>
+        <v>2.3202073170731707</v>
       </c>
       <c r="O18" s="31"/>
     </row>
@@ -1584,7 +1608,9 @@
       <c r="H19" s="14">
         <v>4.57</v>
       </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="14">
+        <v>4.84</v>
+      </c>
       <c r="J19" s="14"/>
       <c r="K19" s="14">
         <f t="shared" si="11"/>
@@ -1597,7 +1623,7 @@
       <c r="M19" s="15"/>
       <c r="N19" s="16">
         <f t="shared" si="0"/>
-        <v>1.8362073170731708</v>
+        <v>2.3202073170731707</v>
       </c>
       <c r="O19" s="31"/>
     </row>
@@ -1621,7 +1647,9 @@
       <c r="H20" s="14">
         <v>4.57</v>
       </c>
-      <c r="I20" s="14"/>
+      <c r="I20" s="14">
+        <v>4.84</v>
+      </c>
       <c r="J20" s="14"/>
       <c r="K20" s="14">
         <f t="shared" si="11"/>
@@ -1634,7 +1662,7 @@
       <c r="M20" s="15"/>
       <c r="N20" s="16">
         <f t="shared" si="0"/>
-        <v>1.8362073170731708</v>
+        <v>2.3202073170731707</v>
       </c>
       <c r="O20" s="31"/>
     </row>
@@ -1658,7 +1686,9 @@
       <c r="H21" s="14">
         <v>4.57</v>
       </c>
-      <c r="I21" s="14"/>
+      <c r="I21" s="14">
+        <v>4.84</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14">
         <f t="shared" si="11"/>
@@ -1671,7 +1701,7 @@
       <c r="M21" s="15"/>
       <c r="N21" s="16">
         <f t="shared" si="0"/>
-        <v>1.8362073170731708</v>
+        <v>2.3202073170731707</v>
       </c>
       <c r="O21" s="31"/>
     </row>
@@ -1699,7 +1729,9 @@
       <c r="H22" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I22" s="14"/>
+      <c r="I22" s="14">
+        <v>4.59</v>
+      </c>
       <c r="J22" s="14"/>
       <c r="K22" s="14">
         <f>0.63/0.18</f>
@@ -1712,7 +1744,7 @@
       <c r="M22" s="15"/>
       <c r="N22" s="16">
         <f t="shared" si="0"/>
-        <v>2.0449024390243906</v>
+        <v>2.5039024390243907</v>
       </c>
       <c r="O22" s="31"/>
     </row>
@@ -1736,7 +1768,9 @@
       <c r="H23" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I23" s="14"/>
+      <c r="I23" s="14">
+        <v>4.59</v>
+      </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14">
         <f t="shared" ref="K23:K26" si="15">0.63/0.18</f>
@@ -1749,7 +1783,7 @@
       <c r="M23" s="15"/>
       <c r="N23" s="16">
         <f t="shared" si="0"/>
-        <v>2.0449024390243906</v>
+        <v>2.5039024390243907</v>
       </c>
       <c r="O23" s="31"/>
     </row>
@@ -1773,7 +1807,9 @@
       <c r="H24" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I24" s="14"/>
+      <c r="I24" s="14">
+        <v>4.59</v>
+      </c>
       <c r="J24" s="14"/>
       <c r="K24" s="14">
         <f t="shared" si="15"/>
@@ -1786,7 +1822,7 @@
       <c r="M24" s="15"/>
       <c r="N24" s="16">
         <f t="shared" si="0"/>
-        <v>2.0449024390243906</v>
+        <v>2.5039024390243907</v>
       </c>
       <c r="O24" s="31"/>
     </row>
@@ -1810,7 +1846,9 @@
       <c r="H25" s="14">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I25" s="14"/>
+      <c r="I25" s="14">
+        <v>4.59</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="14">
         <f t="shared" si="15"/>
@@ -1823,13 +1861,13 @@
       <c r="M25" s="15"/>
       <c r="N25" s="16">
         <f t="shared" si="0"/>
-        <v>2.0449024390243906</v>
+        <v>2.5039024390243907</v>
       </c>
       <c r="O25" s="31"/>
     </row>
     <row r="26" spans="2:15" ht="15.75" thickBot="1">
-      <c r="B26" s="45"/>
-      <c r="C26" s="51"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="25">
         <v>201117827</v>
       </c>
@@ -1847,7 +1885,9 @@
       <c r="H26" s="28">
         <v>4.3099999999999996</v>
       </c>
-      <c r="I26" s="28"/>
+      <c r="I26" s="28">
+        <v>4.59</v>
+      </c>
       <c r="J26" s="28"/>
       <c r="K26" s="28">
         <f t="shared" si="15"/>
@@ -1860,18 +1900,12 @@
       <c r="M26" s="29"/>
       <c r="N26" s="30">
         <f t="shared" si="0"/>
-        <v>2.0449024390243906</v>
+        <v>2.5039024390243907</v>
       </c>
       <c r="O26" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="B2:N2"/>
@@ -1884,6 +1918,12 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B11:B15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
